--- a/testData/orderBusinessAction.xlsx
+++ b/testData/orderBusinessAction.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>序号</t>
   </si>
@@ -55,7 +55,7 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>2020-06-21 07:03:01</t>
+    <t>2020-06-22 10:14:37</t>
   </si>
   <si>
     <t>pass</t>
@@ -70,7 +70,7 @@
     <t>https://u.jd.com/4hSnP0</t>
   </si>
   <si>
-    <t>2020-06-19 19:22:33</t>
+    <t>2020-06-21 07:03:07</t>
   </si>
   <si>
     <t>最大化窗口</t>
@@ -79,7 +79,7 @@
     <t>maximize_browser</t>
   </si>
   <si>
-    <t>2020-06-19 19:22:37</t>
+    <t>2020-06-21 07:03:12</t>
   </si>
   <si>
     <t>等待主页加载</t>
@@ -88,7 +88,7 @@
     <t>sleep</t>
   </si>
   <si>
-    <t>2020-06-19 19:22:41</t>
+    <t>2020-06-21 07:03:15</t>
   </si>
   <si>
     <t>设置登录cookies</t>
@@ -109,7 +109,7 @@
     <t>//ul/li[2]</t>
   </si>
   <si>
-    <t>2020-06-19 19:22:42</t>
+    <t>2020-06-21 07:03:16</t>
   </si>
   <si>
     <t>点击立即购买</t>
@@ -118,41 +118,13 @@
     <t>//div[@id='buyBtn2']</t>
   </si>
   <si>
-    <t>2020-06-19 19:22:47</t>
-  </si>
-  <si>
-    <t>faild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traceback (most recent call last):
-  File "D:\John\work\airtestLearning\webtest\testScripts\ExecuteTest.py", line 55, in executeExcel
-    returnValue = eval(expressionStr)
-  File "&lt;string&gt;", line 1, in &lt;module&gt;
-  File "D:\John\work\airtestLearning\webtest\action\PageAction.py", line 73, in click
-    raise err
-  File "D:\John\work\airtestLearning\webtest\action\PageAction.py", line 71, in click
-    getElement(driver, locationType, locatorExpression).click()
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\webelement.py", line 80, in click
-    self._execute(Command.CLICK_ELEMENT)
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\webelement.py", line 501, in _execute
-    return self._parent.execute(command, params)
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\webdriver.py", line 311, in execute
-    self.error_handler.check_response(response)
-  File "C:\Python\Python36\lib\site-packages\selenium\webdriver\remote\errorhandler.py", line 237, in check_response
-    raise exception_class(message, screen, stacktrace)
-selenium.common.exceptions.ElementNotVisibleException: Message: element not interactable
-  (Session info: chrome=83.0.4103.106)
-  (Driver info: chromedriver=72.0.3626.7 (efcef9a3ecda02b2132af215116a03852d08b9cb),platform=Windows NT 10.0.18363 x86_64)
-</t>
-  </si>
-  <si>
-    <t>D:\John\work\airtestLearning\webtest\exceptionpictures\2020-6-19\19-22-47-126336.png</t>
+    <t>2020-06-21 07:03:23</t>
   </si>
   <si>
     <t>等待2秒</t>
   </si>
   <si>
-    <t>2020-06-19 19:22:49</t>
+    <t>2020-06-21 07:03:25</t>
   </si>
   <si>
     <t>判断选择并点击</t>
@@ -230,22 +202,43 @@
     <t>data-orderid</t>
   </si>
   <si>
-    <t>2020-06-21 07:03:07</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:03:12</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:03:15</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:03:16</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:03:23</t>
-  </si>
-  <si>
-    <t>2020-06-21 07:03:25</t>
+    <t>2020-06-22 10:14:42</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:14:46</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:14:49</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:14:50</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:14:57</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:14:59</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:15:04</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:15:05</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:15:07</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:15:08</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:15:10</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:15:16</t>
+  </si>
+  <si>
+    <t>2020-06-22 10:15:18</t>
   </si>
 </sst>
 </file>
@@ -707,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>14</v>
@@ -729,7 +722,7 @@
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="5" t="n"/>
       <c r="G4" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>14</v>
@@ -753,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>14</v>
@@ -775,7 +768,7 @@
       <c r="E6" s="5" t="n"/>
       <c r="F6" s="1" t="n"/>
       <c r="G6" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>14</v>
@@ -801,7 +794,7 @@
       </c>
       <c r="F7" s="5" t="n"/>
       <c r="G7" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>14</v>
@@ -827,7 +820,7 @@
       </c>
       <c r="F8" s="5" t="n"/>
       <c r="G8" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>14</v>
@@ -840,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>23</v>
@@ -851,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>14</v>
@@ -864,20 +857,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5" t="n"/>
       <c r="G10" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>14</v>
@@ -890,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
@@ -899,24 +892,24 @@
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="5" t="n"/>
       <c r="G11" s="5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
+      <c r="I11" s="5" t="s"/>
+      <c r="J11" s="5" t="s"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>28</v>
@@ -925,24 +918,24 @@
         <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5" t="n"/>
       <c r="G12" s="5" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
+      <c r="I12" s="5" t="s"/>
+      <c r="J12" s="5" t="s"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>23</v>
@@ -953,20 +946,20 @@
         <v>2</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="n"/>
-      <c r="J13" s="5" t="n"/>
+      <c r="I13" s="5" t="s"/>
+      <c r="J13" s="5" t="s"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>28</v>
@@ -975,24 +968,24 @@
         <v>29</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5" t="n"/>
       <c r="G14" s="5" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="n"/>
-      <c r="J14" s="5" t="n"/>
+      <c r="I14" s="5" t="s"/>
+      <c r="J14" s="5" t="s"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>28</v>
@@ -1001,24 +994,24 @@
         <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5" t="n"/>
       <c r="G15" s="5" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="n"/>
-      <c r="J15" s="5" t="n"/>
+      <c r="I15" s="5" t="s"/>
+      <c r="J15" s="5" t="s"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>28</v>
@@ -1027,24 +1020,24 @@
         <v>29</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F16" s="5" t="n"/>
       <c r="G16" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="n"/>
-      <c r="J16" s="5" t="n"/>
+      <c r="I16" s="5" t="s"/>
+      <c r="J16" s="5" t="s"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>28</v>
@@ -1053,45 +1046,45 @@
         <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="5" t="n"/>
       <c r="G17" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="n"/>
-      <c r="J17" s="5" t="n"/>
+      <c r="I17" s="5" t="s"/>
+      <c r="J17" s="5" t="s"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="n"/>
-      <c r="J18" s="5" t="n"/>
+      <c r="I18" s="5" t="s"/>
+      <c r="J18" s="5" t="s"/>
     </row>
   </sheetData>
   <hyperlinks>
